--- a/Projektdokumentation/Soll_Analyse/Projektplanung/Projektstrukturplan.xlsx
+++ b/Projektdokumentation/Soll_Analyse/Projektplanung/Projektstrukturplan.xlsx
@@ -5,14 +5,21 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slothking\Dokumente\Ausbildung\Berufsschule\Mittelstufenprojekt\mp_anwen_scrumiverse\Projektplanung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slothking\Dokumente\Ausbildung\Berufsschule\Mittelstufenprojekt\mp_anwen_scrumiverse\Projektdokumentation\Soll_Analyse\Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Index" sheetId="6" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint 1 Overview" sheetId="2" r:id="rId3"/>
+    <sheet name="Epik Ist-Analyse" sheetId="7" r:id="rId4"/>
+    <sheet name="Epik Soll-Analyse" sheetId="8" r:id="rId5"/>
+    <sheet name="Sprint 2 Overview" sheetId="3" r:id="rId6"/>
+    <sheet name="Sprint 3 Overview" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint 4 Overview" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t xml:space="preserve">SP001 </t>
   </si>
@@ -41,20 +48,10 @@
 Software &amp; Projektplan</t>
   </si>
   <si>
-    <t>Projektplan Teil A
-Papier-Prototyp</t>
-  </si>
-  <si>
-    <t>T001</t>
-  </si>
-  <si>
     <t>US001</t>
   </si>
   <si>
     <t>US002</t>
-  </si>
-  <si>
-    <t>T002</t>
   </si>
   <si>
     <t xml:space="preserve">Der Kunde will eine 
@@ -62,52 +59,16 @@
 Konkurrenzprodukten </t>
   </si>
   <si>
-    <t>Ermitteln der 
-Konkurrenzsoftware</t>
-  </si>
-  <si>
-    <t>Stärken- und 
-Schwächenanalyse 
-der Konkurrenz</t>
-  </si>
-  <si>
     <t>US003</t>
   </si>
   <si>
     <t>Der Kunde will eine Analyse des Vorgehensmodell "Scrum"</t>
   </si>
   <si>
-    <t>T003</t>
-  </si>
-  <si>
-    <t>T004</t>
-  </si>
-  <si>
-    <t>Analyse und Darstellung
-des Workflows</t>
-  </si>
-  <si>
-    <t>Interview auf der Arbeit führen, Fragestellung 
-"Was wäre eine gute Projektplanungssoftware"</t>
-  </si>
-  <si>
     <t>US004</t>
   </si>
   <si>
     <t>US005</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>Erfassen der Toolsbaseline</t>
-  </si>
-  <si>
-    <t>T006</t>
-  </si>
-  <si>
-    <t>Gruppeninterne Format Vereinbarungen
-treffen (Commits etc.)</t>
   </si>
   <si>
     <t>Der Kunde will eine Übersicht der
@@ -130,9 +91,6 @@
 Papierprototyp</t>
   </si>
   <si>
-    <t>T007</t>
-  </si>
-  <si>
     <t>US007</t>
   </si>
   <si>
@@ -141,37 +99,11 @@
 Architektur.</t>
   </si>
   <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>Erstellen des Datenmodells
-(UML)</t>
-  </si>
-  <si>
-    <t>T009</t>
-  </si>
-  <si>
-    <t>Planen der Architektur (UML)</t>
-  </si>
-  <si>
     <t>Der Kunde möchte eine
 Übersicht über alle
 Anwendungsfälle</t>
   </si>
   <si>
-    <t>Ermitteln sämtlicher 
-Anwendungsfälle 
-(ermitteln der Features)</t>
-  </si>
-  <si>
-    <t>Ausformulieren / 
-Aufbereiten sämtlicher
-Anwendungsfälle</t>
-  </si>
-  <si>
-    <t>T010</t>
-  </si>
-  <si>
     <t>US008</t>
   </si>
   <si>
@@ -180,13 +112,76 @@
   </si>
   <si>
     <t>US009</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Sprint:</t>
+  </si>
+  <si>
+    <t>Epik</t>
+  </si>
+  <si>
+    <t>Epik:</t>
+  </si>
+  <si>
+    <t>User Story:</t>
+  </si>
+  <si>
+    <t>SPXXX</t>
+  </si>
+  <si>
+    <t>USXXX</t>
+  </si>
+  <si>
+    <t>SP002</t>
+  </si>
+  <si>
+    <t>SP003</t>
+  </si>
+  <si>
+    <t>SP004</t>
+  </si>
+  <si>
+    <t>Kern Implementation</t>
+  </si>
+  <si>
+    <t>Finalisierung der Website</t>
+  </si>
+  <si>
+    <t>Dokumentation &amp; Prototyp</t>
+  </si>
+  <si>
+    <t>Präsentation &amp; Prototyp</t>
+  </si>
+  <si>
+    <t>Projektantrag</t>
+  </si>
+  <si>
+    <t>Ist-Analyse</t>
+  </si>
+  <si>
+    <t>Soll-Analyse</t>
+  </si>
+  <si>
+    <t>Systemarchitektur</t>
+  </si>
+  <si>
+    <t>US002-US004</t>
+  </si>
+  <si>
+    <t>US005-US006</t>
+  </si>
+  <si>
+    <t>Zeige Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +194,30 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -270,16 +289,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -297,29 +314,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,6 +589,275 @@
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerader Verbinder 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="962025"/>
+          <a:ext cx="8582025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>963385</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerader Verbinder 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1201511" y="983796"/>
+          <a:ext cx="1360" cy="115661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>956583</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>957943</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerader Verbinder 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340554" y="983796"/>
+          <a:ext cx="1360" cy="115661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>956582</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>957942</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerader Verbinder 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7656739" y="972910"/>
+          <a:ext cx="1360" cy="115661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>934810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>936170</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>223157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerader Verbinder 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9779453" y="967467"/>
+          <a:ext cx="1360" cy="115661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>934811</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>936171</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Gerader Verbinder 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5463268" y="864053"/>
+          <a:ext cx="1360" cy="115661"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,11 +1123,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="E9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B3:R15"/>
+  <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,158 +1207,451 @@
     <col min="20" max="20" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J3" s="15" t="s">
+    <row r="3" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="6"/>
-      <c r="J5" s="14" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="6"/>
-      <c r="J6" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="10" t="s">
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="D15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" s="12" t="s">
+      <c r="J6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="11" width="28.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="Q5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" location="'Sprint 1 Overview'!A1" display="Dokumentation &amp; Prototyp"/>
+    <hyperlink ref="D9" location="'Epik Ist-Analyse'!A1" display="Zeige Details"/>
+    <hyperlink ref="F9" location="'Epik Soll-Analyse'!A1" display="Zeige Details"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="'Sprint 1 Overview'!A1" display="Ist-Analyse"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="'Sprint 1 Overview'!A1" display="Soll-Analyse"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>